--- a/lang.xlsx
+++ b/lang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>key</t>
   </si>
@@ -140,6 +140,12 @@
     <t>trans0014</t>
   </si>
   <si>
+    <t>知乎</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxx</t>
+  </si>
+  <si>
     <t>trans0015</t>
   </si>
   <si>
@@ -159,6 +165,12 @@
   </si>
   <si>
     <t>trans0021</t>
+  </si>
+  <si>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>asdada</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1112,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1176,9 +1188,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1258,44 +1276,53 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1337,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1386,9 +1413,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:1">
+    <row r="7" customFormat="1" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1475,37 +1508,37 @@
     </row>
     <row r="16" customFormat="1" spans="1:1">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:1">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:1">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:1">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:1">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
